--- a/mid/dim/税率表.xlsx
+++ b/mid/dim/税率表.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$154</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -327,8 +330,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -342,62 +345,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -405,13 +354,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,6 +373,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -439,9 +432,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,7 +449,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,14 +457,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -479,7 +472,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,7 +493,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,187 +508,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,6 +693,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -712,6 +725,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,30 +785,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -774,30 +793,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -806,10 +801,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,150 +813,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1283,29 +1279,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K1" sqref="K$1:K$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
@@ -2386,6 +2384,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K154">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
